--- a/model/nop-auth-delta.orm.xlsx
+++ b/model/nop-auth-delta.orm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-app-mall\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8F8F3DF-18B7-4521-8EBB-A911C09C4418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E02BBFFE-9DA1-470B-AB26-16E4C5614F71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="3" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="130">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -528,6 +528,26 @@
   </si>
   <si>
     <t>类名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CLIENT_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Client Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>del</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seq,not-gen</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -767,14 +787,29 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -785,51 +820,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -838,36 +828,66 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1434,7 +1454,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="A12:C12"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1996,7 +2016,7 @@
   <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:P6"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2017,160 +2037,160 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="48" t="s">
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="23"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="28"/>
       <c r="N1" s="14"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="21" t="s">
+      <c r="B2" s="51"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
       <c r="H2" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="I2" s="21" t="s">
+      <c r="I2" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="23"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="28"/>
       <c r="N2" s="14"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="48" t="s">
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
       <c r="H3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="21" t="s">
+      <c r="I3" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="23"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="28"/>
       <c r="N3" s="14"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
       <c r="H4" s="2"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="23"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="28"/>
       <c r="N4" s="14"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="50"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
-      <c r="M5" s="51"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="33"/>
       <c r="N5" s="13"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="39"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="40"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="41"/>
+      <c r="A6" s="29"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="31"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="47"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="47"/>
-      <c r="L7" s="47"/>
-      <c r="M7" s="47"/>
-      <c r="N7" s="47"/>
-      <c r="O7" s="47"/>
-      <c r="P7" s="47"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
@@ -2230,7 +2250,7 @@
         <v>27</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>41</v>
@@ -2291,17 +2311,33 @@
       <c r="P10" s="1"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11" s="7"/>
+      <c r="A11" s="7">
+        <v>26</v>
+      </c>
       <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
+      <c r="C11" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="H11" s="9"/>
       <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
+      <c r="J11" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="K11" s="7">
+        <v>100</v>
+      </c>
       <c r="L11" s="7"/>
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
@@ -2309,223 +2345,259 @@
       <c r="P11" s="1"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" s="42" t="s">
+      <c r="A13" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="43"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="43"/>
-      <c r="J13" s="43"/>
-      <c r="K13" s="43"/>
-      <c r="L13" s="43"/>
-      <c r="M13" s="43"/>
-      <c r="N13" s="43"/>
-      <c r="O13" s="43"/>
-      <c r="P13" s="44"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="20"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A14" s="45">
+      <c r="A14" s="21">
         <v>1</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="39" t="s">
+      <c r="C14" s="35"/>
+      <c r="D14" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
       <c r="G14" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H14" s="39"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="41"/>
-      <c r="K14" s="33" t="s">
+      <c r="H14" s="29"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="L14" s="35"/>
-      <c r="M14" s="21" t="s">
+      <c r="L14" s="37"/>
+      <c r="M14" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="N14" s="22"/>
-      <c r="O14" s="22"/>
-      <c r="P14" s="23"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="27"/>
+      <c r="P14" s="28"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A15" s="46"/>
-      <c r="B15" s="18" t="s">
+      <c r="A15" s="22"/>
+      <c r="B15" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="39" t="s">
+      <c r="C15" s="35"/>
+      <c r="D15" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
       <c r="G15" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H15" s="39" t="s">
+      <c r="H15" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="I15" s="40"/>
-      <c r="J15" s="41"/>
-      <c r="K15" s="33" t="s">
+      <c r="I15" s="30"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="L15" s="35"/>
-      <c r="M15" s="21" t="s">
+      <c r="L15" s="37"/>
+      <c r="M15" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="N15" s="22"/>
-      <c r="O15" s="22"/>
-      <c r="P15" s="23"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="27"/>
+      <c r="P15" s="28"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="46"/>
-      <c r="B16" s="18" t="s">
+      <c r="A16" s="22"/>
+      <c r="B16" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
       <c r="G16" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="41"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="31"/>
       <c r="K16" s="15"/>
       <c r="L16" s="16"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="22"/>
-      <c r="O16" s="22"/>
-      <c r="P16" s="23"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="27"/>
+      <c r="P16" s="28"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A17" s="46"/>
-      <c r="B17" s="18" t="s">
+      <c r="A17" s="22"/>
+      <c r="B17" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="41"/>
-      <c r="K17" s="33" t="s">
+      <c r="C17" s="35"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="L17" s="35"/>
-      <c r="M17" s="21" t="s">
+      <c r="L17" s="37"/>
+      <c r="M17" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="N17" s="22"/>
-      <c r="O17" s="22"/>
-      <c r="P17" s="23"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="27"/>
+      <c r="P17" s="28"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A18" s="46"/>
-      <c r="B18" s="30" t="s">
+      <c r="A18" s="22"/>
+      <c r="B18" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="32"/>
-      <c r="M18" s="30"/>
-      <c r="N18" s="31"/>
-      <c r="O18" s="31"/>
-      <c r="P18" s="32"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="45"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="44"/>
+      <c r="L18" s="46"/>
+      <c r="M18" s="44"/>
+      <c r="N18" s="45"/>
+      <c r="O18" s="45"/>
+      <c r="P18" s="46"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A19" s="46"/>
+      <c r="A19" s="22"/>
       <c r="B19" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="33" t="s">
+      <c r="C19" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="34"/>
-      <c r="E19" s="35"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="37"/>
       <c r="F19" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G19" s="33" t="s">
+      <c r="G19" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="H19" s="35"/>
-      <c r="I19" s="33" t="s">
+      <c r="H19" s="37"/>
+      <c r="I19" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="J19" s="35"/>
-      <c r="K19" s="36"/>
-      <c r="L19" s="37"/>
-      <c r="M19" s="36"/>
-      <c r="N19" s="38"/>
-      <c r="O19" s="38"/>
-      <c r="P19" s="37"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="48"/>
+      <c r="L19" s="49"/>
+      <c r="M19" s="48"/>
+      <c r="N19" s="50"/>
+      <c r="O19" s="50"/>
+      <c r="P19" s="49"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A20" s="46"/>
+      <c r="A20" s="22"/>
       <c r="B20" s="8">
         <v>1</v>
       </c>
-      <c r="C20" s="24" t="s">
+      <c r="C20" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="D20" s="25"/>
-      <c r="E20" s="26"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="40"/>
       <c r="F20" s="3"/>
-      <c r="G20" s="24" t="s">
+      <c r="G20" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="H20" s="26"/>
+      <c r="H20" s="40"/>
       <c r="I20" s="3"/>
       <c r="J20" s="4"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="27"/>
-      <c r="N20" s="29"/>
-      <c r="O20" s="29"/>
-      <c r="P20" s="28"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="42"/>
+      <c r="M20" s="41"/>
+      <c r="N20" s="43"/>
+      <c r="O20" s="43"/>
+      <c r="P20" s="42"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="46"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="26"/>
+      <c r="A21" s="22"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="40"/>
       <c r="F21" s="3"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="26"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="40"/>
       <c r="I21" s="3"/>
       <c r="J21" s="4"/>
-      <c r="K21" s="27"/>
-      <c r="L21" s="28"/>
-      <c r="M21" s="27"/>
-      <c r="N21" s="29"/>
-      <c r="O21" s="29"/>
-      <c r="P21" s="28"/>
+      <c r="K21" s="41"/>
+      <c r="L21" s="42"/>
+      <c r="M21" s="41"/>
+      <c r="N21" s="43"/>
+      <c r="O21" s="43"/>
+      <c r="P21" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="52">
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="M20:P20"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="M16:P16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="M17:P17"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="B18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="M18:P18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="M19:P19"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="M14:P14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="M15:P15"/>
     <mergeCell ref="A13:P13"/>
     <mergeCell ref="A14:A21"/>
     <mergeCell ref="A7:P7"/>
@@ -2542,42 +2614,6 @@
     <mergeCell ref="I4:M4"/>
     <mergeCell ref="D5:M5"/>
     <mergeCell ref="B14:C14"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="M14:P14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="M15:P15"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="M21:P21"/>
-    <mergeCell ref="B18:J18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="M18:P18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="M19:P19"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="M20:P20"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="M16:P16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:J17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="M17:P17"/>
-    <mergeCell ref="D14:F14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2589,7 +2625,7 @@
   <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:M2"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2610,11 +2646,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
       <c r="D1" s="52" t="s">
         <v>120</v>
       </c>
@@ -2624,122 +2660,122 @@
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="23"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="28"/>
       <c r="N1" s="14"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="48" t="s">
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="21" t="s">
+      <c r="I2" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="23"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="28"/>
       <c r="N2" s="14"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="48" t="s">
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
       <c r="H3" s="2"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="23"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="28"/>
       <c r="N3" s="14"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="49"/>
-      <c r="M4" s="51"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="33"/>
       <c r="N4" s="13"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="39"/>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
-      <c r="N5" s="40"/>
-      <c r="O5" s="40"/>
-      <c r="P5" s="41"/>
+      <c r="A5" s="29"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="30"/>
+      <c r="P5" s="31"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="47"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="47"/>
-      <c r="N6" s="47"/>
-      <c r="O6" s="47"/>
-      <c r="P6" s="47"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">

--- a/model/nop-auth-delta.orm.xlsx
+++ b/model/nop-auth-delta.orm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-app-mall\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E02BBFFE-9DA1-470B-AB26-16E4C5614F71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FA60948-D06C-4A48-BDFC-B2A43392B036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="3" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="1" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="131">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -548,6 +548,10 @@
   </si>
   <si>
     <t>seq,not-gen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowIdAsColName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -787,6 +791,78 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -811,83 +887,11 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1453,8 +1457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9313AC94-4A2B-4F66-85AD-4A3D79664E62}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1584,8 +1588,12 @@
       <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
+      <c r="A12" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B12" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="C12" s="1"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -2015,7 +2023,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49753E9A-158A-4EB9-A449-F2590B12608A}">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -2037,160 +2045,160 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="24" t="s">
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="I1" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="28"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="23"/>
       <c r="N1" s="14"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="26" t="s">
+      <c r="B2" s="19"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
       <c r="H2" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="I2" s="26" t="s">
+      <c r="I2" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="28"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="23"/>
       <c r="N2" s="14"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="24" t="s">
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
       <c r="H3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="26" t="s">
+      <c r="I3" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="28"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="23"/>
       <c r="N3" s="14"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
       <c r="H4" s="2"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="28"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="23"/>
       <c r="N4" s="14"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="33"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="51"/>
       <c r="N5" s="13"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="29"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="31"/>
+      <c r="A6" s="30"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+      <c r="P6" s="32"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="47"/>
+      <c r="N7" s="47"/>
+      <c r="O7" s="47"/>
+      <c r="P7" s="47"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
@@ -2345,223 +2353,259 @@
       <c r="P11" s="1"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
-      <c r="N13" s="19"/>
-      <c r="O13" s="19"/>
-      <c r="P13" s="20"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="43"/>
+      <c r="M13" s="43"/>
+      <c r="N13" s="43"/>
+      <c r="O13" s="43"/>
+      <c r="P13" s="44"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A14" s="21">
+      <c r="A14" s="45">
         <v>1</v>
       </c>
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="35"/>
-      <c r="D14" s="29" t="s">
+      <c r="C14" s="20"/>
+      <c r="D14" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
       <c r="G14" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H14" s="29"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="36" t="s">
+      <c r="H14" s="30"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="L14" s="37"/>
-      <c r="M14" s="26" t="s">
+      <c r="L14" s="34"/>
+      <c r="M14" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="N14" s="27"/>
-      <c r="O14" s="27"/>
-      <c r="P14" s="28"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="23"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A15" s="22"/>
-      <c r="B15" s="34" t="s">
+      <c r="A15" s="46"/>
+      <c r="B15" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="35"/>
-      <c r="D15" s="29" t="s">
+      <c r="C15" s="20"/>
+      <c r="D15" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
       <c r="G15" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H15" s="29" t="s">
+      <c r="H15" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="I15" s="30"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="36" t="s">
+      <c r="I15" s="31"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="L15" s="37"/>
-      <c r="M15" s="26" t="s">
+      <c r="L15" s="34"/>
+      <c r="M15" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="N15" s="27"/>
-      <c r="O15" s="27"/>
-      <c r="P15" s="28"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="23"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="22"/>
-      <c r="B16" s="34" t="s">
+      <c r="A16" s="46"/>
+      <c r="B16" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="C16" s="35"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
       <c r="G16" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="32"/>
       <c r="K16" s="15"/>
       <c r="L16" s="16"/>
-      <c r="M16" s="26"/>
-      <c r="N16" s="27"/>
-      <c r="O16" s="27"/>
-      <c r="P16" s="28"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="22"/>
+      <c r="P16" s="23"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A17" s="22"/>
-      <c r="B17" s="34" t="s">
+      <c r="A17" s="46"/>
+      <c r="B17" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="35"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="36" t="s">
+      <c r="C17" s="20"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="L17" s="37"/>
-      <c r="M17" s="26" t="s">
+      <c r="L17" s="34"/>
+      <c r="M17" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="N17" s="27"/>
-      <c r="O17" s="27"/>
-      <c r="P17" s="28"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="23"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A18" s="22"/>
-      <c r="B18" s="44" t="s">
+      <c r="A18" s="46"/>
+      <c r="B18" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="45"/>
-      <c r="J18" s="46"/>
-      <c r="K18" s="44"/>
-      <c r="L18" s="46"/>
-      <c r="M18" s="44"/>
-      <c r="N18" s="45"/>
-      <c r="O18" s="45"/>
-      <c r="P18" s="46"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="37"/>
+      <c r="M18" s="35"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="36"/>
+      <c r="P18" s="37"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A19" s="22"/>
+      <c r="A19" s="46"/>
       <c r="B19" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="36" t="s">
+      <c r="C19" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="47"/>
-      <c r="E19" s="37"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="34"/>
       <c r="F19" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G19" s="36" t="s">
+      <c r="G19" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="H19" s="37"/>
-      <c r="I19" s="36" t="s">
+      <c r="H19" s="34"/>
+      <c r="I19" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="J19" s="37"/>
-      <c r="K19" s="48"/>
-      <c r="L19" s="49"/>
-      <c r="M19" s="48"/>
-      <c r="N19" s="50"/>
-      <c r="O19" s="50"/>
-      <c r="P19" s="49"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="39"/>
+      <c r="L19" s="40"/>
+      <c r="M19" s="39"/>
+      <c r="N19" s="41"/>
+      <c r="O19" s="41"/>
+      <c r="P19" s="40"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A20" s="22"/>
+      <c r="A20" s="46"/>
       <c r="B20" s="8">
         <v>1</v>
       </c>
-      <c r="C20" s="38" t="s">
+      <c r="C20" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="D20" s="39"/>
-      <c r="E20" s="40"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="26"/>
       <c r="F20" s="3"/>
-      <c r="G20" s="38" t="s">
+      <c r="G20" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="H20" s="40"/>
+      <c r="H20" s="26"/>
       <c r="I20" s="3"/>
       <c r="J20" s="4"/>
-      <c r="K20" s="41"/>
-      <c r="L20" s="42"/>
-      <c r="M20" s="41"/>
-      <c r="N20" s="43"/>
-      <c r="O20" s="43"/>
-      <c r="P20" s="42"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="27"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="29"/>
+      <c r="P20" s="28"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="22"/>
-      <c r="B21" s="38"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="40"/>
+      <c r="A21" s="46"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="26"/>
       <c r="F21" s="3"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="40"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="26"/>
       <c r="I21" s="3"/>
       <c r="J21" s="4"/>
-      <c r="K21" s="41"/>
-      <c r="L21" s="42"/>
-      <c r="M21" s="41"/>
-      <c r="N21" s="43"/>
-      <c r="O21" s="43"/>
-      <c r="P21" s="42"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="28"/>
+      <c r="M21" s="27"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="29"/>
+      <c r="P21" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="52">
+    <mergeCell ref="A13:P13"/>
+    <mergeCell ref="A14:A21"/>
+    <mergeCell ref="A7:P7"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I4:M4"/>
+    <mergeCell ref="D5:M5"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="M14:P14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="M15:P15"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="B18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="M18:P18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="M19:P19"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="D2:G2"/>
     <mergeCell ref="I2:M2"/>
@@ -2578,42 +2622,6 @@
     <mergeCell ref="K17:L17"/>
     <mergeCell ref="M17:P17"/>
     <mergeCell ref="D14:F14"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="M21:P21"/>
-    <mergeCell ref="B18:J18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="M18:P18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="M19:P19"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="M14:P14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="M15:P15"/>
-    <mergeCell ref="A13:P13"/>
-    <mergeCell ref="A14:A21"/>
-    <mergeCell ref="A7:P7"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I4:M4"/>
-    <mergeCell ref="D5:M5"/>
-    <mergeCell ref="B14:C14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2646,11 +2654,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
       <c r="D1" s="52" t="s">
         <v>120</v>
       </c>
@@ -2660,122 +2668,122 @@
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="I1" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="28"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="23"/>
       <c r="N1" s="14"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="24" t="s">
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="26" t="s">
+      <c r="I2" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="28"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="23"/>
       <c r="N2" s="14"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="24" t="s">
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="48" t="s">
         <v>115</v>
       </c>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
       <c r="H3" s="2"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="28"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="23"/>
       <c r="N3" s="14"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="33"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="51"/>
       <c r="N4" s="13"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="29"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="30"/>
-      <c r="N5" s="30"/>
-      <c r="O5" s="30"/>
-      <c r="P5" s="31"/>
+      <c r="A5" s="30"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="32"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="47"/>
+      <c r="N6" s="47"/>
+      <c r="O6" s="47"/>
+      <c r="P6" s="47"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
